--- a/tests/file/MyOrder_Default_Template.xlsx
+++ b/tests/file/MyOrder_Default_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\customix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\customix\Downloads\MyOrder\tests\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7BE160-659A-4E90-A91B-C5DA78E92DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886048EC-B6D6-4B4E-B500-1506364319FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>ชื่อผู้รับ</t>
   </si>
@@ -183,9 +183,6 @@
     <t>ช่องทางการจำหน่าย</t>
   </si>
   <si>
-    <t>ทดสอบ</t>
-  </si>
-  <si>
     <t>0912345678</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>ตัวอย่าง</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>30-09-2021</t>
   </si>
   <si>
@@ -253,6 +247,15 @@
   </si>
   <si>
     <t>Tiktok</t>
+  </si>
+  <si>
+    <t>ทดสอบลดราคา</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
   </sheetPr>
   <dimension ref="A1:Y990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -643,51 +646,51 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -700,51 +703,51 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -757,51 +760,51 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="P4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
